--- a/config_12.08/fish3d_config.xlsx
+++ b/config_12.08/fish3d_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="423">
   <si>
     <t>line|行号</t>
   </si>
@@ -2480,6 +2480,18 @@
   </si>
   <si>
     <t>by_iocn_hfy</t>
+  </si>
+  <si>
+    <t>Fish3D090</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_lhy_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼盒boss</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2565,7 +2577,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2587,6 +2599,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2633,7 +2651,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2806,6 +2824,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3089,7 +3125,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F60" sqref="F60"/>
+      <selection pane="bottomLeft" activeCell="E74" sqref="E74:F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8671,8 +8707,88 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="61" spans="1:36">
-      <c r="E61" s="13"/>
+    <row r="61" spans="1:36" s="60" customFormat="1">
+      <c r="A61" s="58">
+        <v>60</v>
+      </c>
+      <c r="B61" s="58">
+        <v>60</v>
+      </c>
+      <c r="C61" s="59" t="s">
+        <v>420</v>
+      </c>
+      <c r="D61" s="59" t="s">
+        <v>421</v>
+      </c>
+      <c r="E61" s="59" t="s">
+        <v>422</v>
+      </c>
+      <c r="F61" s="59" t="s">
+        <v>418</v>
+      </c>
+      <c r="G61" s="59" t="s">
+        <v>421</v>
+      </c>
+      <c r="H61" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="I61" s="59">
+        <v>2.64</v>
+      </c>
+      <c r="J61" s="59">
+        <v>2.38</v>
+      </c>
+      <c r="K61" s="58">
+        <v>1</v>
+      </c>
+      <c r="L61" s="58">
+        <v>30</v>
+      </c>
+      <c r="M61" s="59">
+        <v>1</v>
+      </c>
+      <c r="N61" s="58">
+        <v>0</v>
+      </c>
+      <c r="O61" s="58">
+        <v>4</v>
+      </c>
+      <c r="Q61" s="59">
+        <v>0.64</v>
+      </c>
+      <c r="R61" s="61">
+        <v>0.73</v>
+      </c>
+      <c r="S61" s="61">
+        <v>0.74</v>
+      </c>
+      <c r="T61" s="59" t="s">
+        <v>341</v>
+      </c>
+      <c r="U61" s="61">
+        <v>1</v>
+      </c>
+      <c r="V61" s="61">
+        <v>0.8</v>
+      </c>
+      <c r="W61" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="Y61" s="62" t="s">
+        <v>342</v>
+      </c>
+      <c r="Z61" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA61" s="63">
+        <v>1</v>
+      </c>
+      <c r="AC61" s="63">
+        <v>1000</v>
+      </c>
+      <c r="AD61" s="63">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="62" spans="1:36">
       <c r="E62" s="13"/>

--- a/config_12.08/fish3d_config.xlsx
+++ b/config_12.08/fish3d_config.xlsx
@@ -3125,7 +3125,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E74" sqref="E74:F76"/>
+      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
